--- a/data/trans_camb/IP16A09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A09-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>-1,86</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 10,3</t>
+          <t>-6,66; 3,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,23</t>
+          <t>-9,28; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 0,0</t>
+          <t>-3,2; 8,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 1,88</t>
+          <t>-6,39; 2,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 3,04</t>
+          <t>-3,62; 3,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 5,16</t>
+          <t>-5,88; 0,34</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>254,91%</t>
+          <t>-30,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>373,27%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-46,64%</t>
+          <t>-33,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,45%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>115,41%</t>
+          <t>-76,68%</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>1,66</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 3,12</t>
+          <t>-0,89; 10,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 0,0</t>
+          <t>0,0; 11,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 8,11</t>
+          <t>-9,66; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 2,13</t>
+          <t>-7,1; 1,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 3,97</t>
+          <t>-3,02; 3,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 0,34</t>
+          <t>-1,57; 5,16</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-30,46%</t>
+          <t>254,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>373,27%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>94,77%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-33,96%</t>
+          <t>-46,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-76,68%</t>
+          <t>115,41%</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">

--- a/data/trans_camb/IP16A09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A09-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>-3,95</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 4,26</t>
+          <t>-10,16; 6,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 0,0</t>
+          <t>-13,64; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -0,19</t>
+          <t>-9,57; 4,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -0,28</t>
+          <t>-11,45; 3,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 0,64</t>
+          <t>-6,86; 3,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -0,85</t>
+          <t>-9,97; -0,03</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,03%</t>
+          <t>-2,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-70,8%</t>
+          <t>-32,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-72,39%</t>
+          <t>-63,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-52,48%</t>
+          <t>-18,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-79,43%</t>
+          <t>-80,04%</t>
         </is>
       </c>
     </row>
@@ -725,29 +725,29 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-94,88; 41,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 79,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-86,34; 42,46</t>
+          <t>-80,61; 285,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 5,19</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-2,0</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 3,12</t>
+          <t>-3,12; 4,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 0,0</t>
+          <t>-5,98; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 8,11</t>
+          <t>-9,8; 2,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 2,13</t>
+          <t>-10,59; 1,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 3,97</t>
+          <t>-4,45; 2,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 0,34</t>
+          <t>-5,1; 0,54</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-30,46%</t>
+          <t>49,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -843,22 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>-50,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-33,96%</t>
+          <t>-58,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>-28,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-76,68%</t>
+          <t>-63,72%</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-88,91; 231,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>0,7</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 10,3</t>
+          <t>-13,74; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,23</t>
+          <t>-5,03; 10,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 0,0</t>
+          <t>-12,68; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 1,88</t>
+          <t>-12,68; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 3,04</t>
+          <t>-8,61; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 5,16</t>
+          <t>-4,16; 4,91</t>
         </is>
       </c>
     </row>
@@ -989,12 +989,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>254,91%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>373,27%</t>
+          <t>141,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-46,64%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>28,45%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>115,41%</t>
+          <t>27,5%</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-1,2</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,39</t>
+          <t>-1,39; 13,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,4</t>
+          <t>-8,21; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 0,45</t>
+          <t>-13,63; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 0,06</t>
+          <t>-10,2; 3,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 1,4</t>
+          <t>-3,45; 4,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,33</t>
+          <t>-5,27; 1,44</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>258,26%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-16,9%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-54,86%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-66,23%</t>
+          <t>-42,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-23,71%</t>
+          <t>36,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-48,07%</t>
+          <t>-58,4%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,65; 412,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,33 +1193,197 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-87,28; 40,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-91,77; 34,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-65,8; 67,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-81,86; 29,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,28</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-2,75</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 3,2</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 2,38</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-5,8; 0,4</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; -0,04</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 1,39</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 0,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>28,23%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-16,9%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-54,86%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-66,23%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-23,71%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-48,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-62,6; 374,1</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-86,87; 322,84</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-89,4; 42,81</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-92,82; 13,27</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-67,57; 73,26</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-80,78; 29,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP16A09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A09-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 6,88</t>
+          <t>-9,05; 7,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 0,0</t>
+          <t>-14,5; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 4,65</t>
+          <t>-10,0; 4,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 3,82</t>
+          <t>-11,31; 2,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 3,81</t>
+          <t>-6,71; 3,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -0,03</t>
+          <t>-9,04; 0,23</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,61; 285,86</t>
+          <t>-81,13; 258,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 4,59</t>
+          <t>-3,07; 3,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 0,0</t>
+          <t>-6,35; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 2,88</t>
+          <t>-9,4; 2,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 1,71</t>
+          <t>-9,62; 2,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 2,11</t>
+          <t>-4,37; 2,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 0,54</t>
+          <t>-5,83; 0,39</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-88,91; 231,86</t>
+          <t>-88,15; 350,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 0,0</t>
+          <t>-12,8; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 10,53</t>
+          <t>-3,85; 11,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 0,0</t>
+          <t>-12,37; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 0,0</t>
+          <t>-12,37; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 0,0</t>
+          <t>-8,93; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 4,91</t>
+          <t>-4,49; 5,07</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 13,87</t>
+          <t>-1,13; 13,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 0,0</t>
+          <t>-9,19; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 0,0</t>
+          <t>-13,46; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 3,03</t>
+          <t>-10,22; 2,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 4,63</t>
+          <t>-3,9; 5,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 1,44</t>
+          <t>-6,27; 0,87</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 3,2</t>
+          <t>-2,14; 3,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,38</t>
+          <t>-3,15; 2,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 0,4</t>
+          <t>-5,85; 0,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,16; -0,04</t>
+          <t>-5,85; -0,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,39</t>
+          <t>-2,88; 1,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 0,3</t>
+          <t>-3,7; 0,39</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-62,6; 374,1</t>
+          <t>-67,28; 438,82</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-86,87; 322,84</t>
+          <t>-85,8; 318,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-89,4; 42,81</t>
+          <t>-88,54; 69,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-92,82; 13,27</t>
+          <t>-92,37; 23,29</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-67,57; 73,26</t>
+          <t>-65,16; 67,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-80,78; 29,87</t>
+          <t>-79,81; 34,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A09-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-1,76</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-3,42</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-0,12</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>-4,5</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,76</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-3,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 7,26</t>
+          <t>-10,09; 4,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 0,0</t>
+          <t>-11,36; 2,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 4,92</t>
+          <t>-10,28; 6,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 2,73</t>
+          <t>-15,8; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 3,93</t>
+          <t>-6,18; 4,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 0,23</t>
+          <t>-9,53; -0,26</t>
         </is>
       </c>
     </row>
@@ -677,22 +677,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-32,64%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-63,58%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-2,72%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-32,64%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-63,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-81,13; 258,26</t>
+          <t>-81,98; 259,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-2,7</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-3,16</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,63</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>-1,27</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,7</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 3,85</t>
+          <t>-9,31; 2,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 0,0</t>
+          <t>-9,91; 1,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 2,66</t>
+          <t>-3,81; 3,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 2,19</t>
+          <t>-6,4; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,53</t>
+          <t>-4,56; 2,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 0,39</t>
+          <t>-5,66; 0,52</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-50,5%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-58,95%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>49,29%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-50,5%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-58,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-88,15; 350,22</t>
+          <t>-89,46; 189,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 145,39</t>
         </is>
       </c>
     </row>
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-2,34</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,34</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-2,71</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>3,83</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,34</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 0,0</t>
+          <t>-12,22; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 11,58</t>
+          <t>-12,22; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 0,0</t>
+          <t>-14,99; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 0,0</t>
+          <t>-5,75; 11,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 0,0</t>
+          <t>-8,95; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 5,07</t>
+          <t>-4,31; 5,53</t>
         </is>
       </c>
     </row>
@@ -994,17 +994,17 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>141,09%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-2,6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>4,2</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>-1,63</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,6</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 13,74</t>
+          <t>-12,73; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 0,0</t>
+          <t>-10,34; 2,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 0,0</t>
+          <t>-1,34; 13,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 2,95</t>
+          <t>-8,23; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 5,36</t>
+          <t>-3,39; 4,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 0,87</t>
+          <t>-5,37; 0,87</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-42,61%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>258,26%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-42,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-2,28</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-2,75</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,64</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>-0,38</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-2,28</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-2,75</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,26</t>
+          <t>-5,45; 0,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 2,44</t>
+          <t>-6,23; 0,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 0,62</t>
+          <t>-2,21; 3,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,85; -0,05</t>
+          <t>-3,09; 2,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,18</t>
+          <t>-2,98; 1,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 0,39</t>
+          <t>-3,62; 0,33</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-54,86%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-66,23%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>28,23%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>-16,9%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-54,86%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-66,23%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-67,28; 438,82</t>
+          <t>-87,28; 40,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-85,8; 318,14</t>
+          <t>-91,77; 34,91</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-88,54; 69,0</t>
+          <t>-62,65; 412,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-92,37; 23,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-65,16; 67,38</t>
+          <t>-65,8; 67,46</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-79,81; 34,69</t>
+          <t>-81,86; 29,26</t>
         </is>
       </c>
     </row>
